--- a/Version2btmshop.xlsx
+++ b/Version2btmshop.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7650" tabRatio="757" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7650" tabRatio="757"/>
   </bookViews>
   <sheets>
     <sheet name="BTM Sales Data" sheetId="6" r:id="rId1"/>
@@ -20,8 +20,8 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId6"/>
-    <pivotCache cacheId="3" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -329,6 +329,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -651,6 +652,5955 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>weekly</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> sales</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33627077865266841"/>
+          <c:y val="2.3148148148148147E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BTM Sales Data'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Amount(Sales)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'BTM Sales Data'!$A$2:$C$21</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="20"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>07-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>14-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>21-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>28-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>04-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>11-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>18-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>25-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>04-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>11-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>18-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>25-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>01-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>08-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>15-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>22-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>29-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>06-05-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>13-05-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>20-05-2022</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>01-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>08-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>22-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>29-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>05-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>12-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>19-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>26-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>05-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>12-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>19-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>26-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>02-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>09-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>16-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>23-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>30-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>07-05-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>14-05-2022</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>13</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>19</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>20</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BTM Sales Data'!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>42900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FE8E-4B65-ABCC-E9FE161D8320}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BTM Sales Data'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Monthly sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'BTM Sales Data'!$A$2:$C$21</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="20"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>07-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>14-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>21-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>28-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>04-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>11-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>18-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>25-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>04-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>11-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>18-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>25-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>01-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>08-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>15-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>22-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>29-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>06-05-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>13-05-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>20-05-2022</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>01-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>08-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>22-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>29-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>05-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>12-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>19-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>26-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>05-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>12-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>19-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>26-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>02-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>09-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>16-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>23-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>30-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>07-05-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>14-05-2022</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>13</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>19</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>20</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BTM Sales Data'!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="3" formatCode="#,##0">
+                  <c:v>160900</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="#,##0">
+                  <c:v>85000</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>54100</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="#,##0">
+                  <c:v>23500</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="#,##0">
+                  <c:v>11500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FE8E-4B65-ABCC-E9FE161D8320}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BTM Sales Data'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'BTM Sales Data'!$A$2:$C$21</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="20"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>07-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>14-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>21-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>28-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>04-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>11-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>18-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>25-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>04-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>11-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>18-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>25-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>01-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>08-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>15-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>22-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>29-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>06-05-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>13-05-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>20-05-2022</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>01-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>08-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>22-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>29-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>05-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>12-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>19-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>26-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>05-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>12-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>19-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>26-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>02-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>09-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>16-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>23-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>30-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>07-05-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>14-05-2022</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>13</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>19</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>20</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BTM Sales Data'!$F$2:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FE8E-4B65-ABCC-E9FE161D8320}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BTM Sales Data'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'BTM Sales Data'!$A$2:$C$21</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="20"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>07-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>14-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>21-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>28-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>04-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>11-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>18-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>25-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>04-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>11-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>18-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>25-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>01-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>08-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>15-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>22-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>29-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>06-05-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>13-05-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>20-05-2022</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>01-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>08-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>22-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>29-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>05-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>12-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>19-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>26-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>05-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>12-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>19-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>26-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>02-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>09-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>16-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>23-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>30-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>07-05-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>14-05-2022</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>13</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>19</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>20</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BTM Sales Data'!$G$2:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FE8E-4B65-ABCC-E9FE161D8320}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BTM Sales Data'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'BTM Sales Data'!$A$2:$C$21</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="20"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>07-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>14-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>21-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>28-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>04-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>11-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>18-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>25-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>04-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>11-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>18-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>25-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>01-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>08-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>15-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>22-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>29-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>06-05-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>13-05-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>20-05-2022</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>01-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>08-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>22-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>29-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>05-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>12-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>19-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>26-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>05-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>12-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>19-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>26-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>02-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>09-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>16-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>23-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>30-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>07-05-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>14-05-2022</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>13</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>19</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>20</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BTM Sales Data'!$H$2:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-FE8E-4B65-ABCC-E9FE161D8320}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BTM Sales Data'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'BTM Sales Data'!$A$2:$C$21</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="20"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>07-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>14-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>21-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>28-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>04-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>11-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>18-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>25-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>04-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>11-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>18-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>25-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>01-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>08-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>15-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>22-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>29-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>06-05-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>13-05-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>20-05-2022</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>01-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>08-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>22-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>29-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>05-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>12-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>19-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>26-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>05-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>12-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>19-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>26-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>02-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>09-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>16-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>23-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>30-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>07-05-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>14-05-2022</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>13</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>19</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>20</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BTM Sales Data'!$I$2:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-FE8E-4B65-ABCC-E9FE161D8320}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BTM Sales Data'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'BTM Sales Data'!$A$2:$C$21</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="20"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>07-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>14-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>21-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>28-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>04-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>11-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>18-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>25-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>04-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>11-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>18-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>25-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>01-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>08-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>15-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>22-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>29-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>06-05-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>13-05-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>20-05-2022</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>01-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>08-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>22-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>29-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>05-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>12-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>19-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>26-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>05-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>12-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>19-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>26-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>02-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>09-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>16-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>23-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>30-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>07-05-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>14-05-2022</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>13</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>19</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>20</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BTM Sales Data'!$J$2:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-FE8E-4B65-ABCC-E9FE161D8320}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BTM Sales Data'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'BTM Sales Data'!$A$2:$C$21</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="20"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>07-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>14-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>21-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>28-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>04-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>11-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>18-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>25-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>04-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>11-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>18-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>25-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>01-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>08-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>15-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>22-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>29-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>06-05-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>13-05-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>20-05-2022</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>01-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>08-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>22-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>29-01-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>05-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>12-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>19-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>26-02-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>05-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>12-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>19-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>26-03-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>02-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>09-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>16-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>23-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>30-04-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>07-05-2022</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>14-05-2022</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>13</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>19</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>20</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BTM Sales Data'!$K$2:$K$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-FE8E-4B65-ABCC-E9FE161D8320}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -936,7 +6886,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1792,7 +7742,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1956,6 +7905,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2512,6 +8501,607 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3027,7 +9617,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3562,6 +10152,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3991,7 +10611,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable22" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Month">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable22" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Month">
   <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
@@ -4087,7 +10707,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable11" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="SHOPNAME">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable11" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="SHOPNAME">
   <location ref="A3:F9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField axis="axisRow" showAll="0">
@@ -4526,8 +11146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5508,7 +12128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
